--- a/Testdokumente/Fehlersammlung.xlsx
+++ b/Testdokumente/Fehlersammlung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathi\Desktop\Studium\Projekt2\P2Terminal\Testdokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia\Documents\projekt\Documentation\Testdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Akzeptanztest</t>
   </si>
@@ -87,12 +87,33 @@
   </si>
   <si>
     <t>Listenimport Passwort</t>
+  </si>
+  <si>
+    <t>Serverausfall</t>
+  </si>
+  <si>
+    <t>Wahl anlegen Listen nicht importiert</t>
+  </si>
+  <si>
+    <t>Wahl anlegen falsche Daten</t>
+  </si>
+  <si>
+    <t>7/8/9/28/29/32/33/36/37/40/41</t>
+  </si>
+  <si>
+    <t>10/30/34/38/42</t>
+  </si>
+  <si>
+    <t>Auswertung stimmt nicht</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -226,32 +247,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -275,8 +296,36 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -587,40 +636,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="10"/>
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -643,16 +693,16 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>43152</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -661,22 +711,40 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="9"/>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>43152</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -685,10 +753,16 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
+      <c r="C5" s="1">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -697,10 +771,16 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -709,7 +789,13 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="11"/>
       <c r="J7" s="13"/>
       <c r="K7" s="15"/>
@@ -721,7 +807,13 @@
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="C8" s="1">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="12"/>
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
@@ -736,12 +828,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
